--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999999996341</v>
+        <v>0.9999999243511539</v>
       </c>
       <c r="E2">
-        <v>0.9999999999996341</v>
+        <v>0.9999999243511539</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.682154527116989E-06</v>
+        <v>3.294034060409583E-11</v>
       </c>
       <c r="E3">
-        <v>2.682154527116989E-06</v>
+        <v>3.294034060409583E-11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.02111367692734846</v>
+        <v>0.0003776924898923207</v>
       </c>
       <c r="E4">
-        <v>0.02111367692734846</v>
+        <v>0.0003776924898923207</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.631215243344266E-08</v>
+        <v>2.653290355792488E-11</v>
       </c>
       <c r="E5">
-        <v>3.631215243344266E-08</v>
+        <v>2.653290355792488E-11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.195060310800827E-31</v>
+        <v>2.315719676356733E-46</v>
       </c>
       <c r="E6">
-        <v>1.195060310800827E-31</v>
+        <v>2.315719676356733E-46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2046529018442744</v>
+        <v>0.02668109272296164</v>
       </c>
       <c r="E7">
-        <v>0.7953470981557256</v>
+        <v>0.9733189072770384</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999945713815804</v>
+        <v>0.9999924035004871</v>
       </c>
       <c r="E8">
-        <v>5.428618419567321E-06</v>
+        <v>7.596499512874111E-06</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999597982</v>
+        <v>0.9999582024683014</v>
       </c>
       <c r="E9">
-        <v>4.020184185549169E-11</v>
+        <v>4.179753169863965E-05</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9999999977449896</v>
+        <v>0.9999999227969958</v>
       </c>
       <c r="E10">
-        <v>2.255010400631363E-09</v>
+        <v>7.720300421176773E-08</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9989751969891804</v>
+        <v>0.5223294696590324</v>
       </c>
       <c r="E11">
-        <v>0.001024803010819642</v>
+        <v>0.4776705303409676</v>
       </c>
       <c r="F11">
-        <v>3.024544239044189</v>
+        <v>2.067084789276123</v>
       </c>
       <c r="G11">
         <v>0.8</v>
